--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value350.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value350.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.470406740781018</v>
+        <v>0.8302551507949829</v>
       </c>
       <c r="B1">
-        <v>3.572607744971291</v>
+        <v>2.177186727523804</v>
       </c>
       <c r="C1">
-        <v>3.107674189248402</v>
+        <v>4.904501914978027</v>
       </c>
       <c r="D1">
-        <v>0.9367824281726439</v>
+        <v>2.391692638397217</v>
       </c>
       <c r="E1">
-        <v>0.6393944121777591</v>
+        <v>1.356216073036194</v>
       </c>
     </row>
   </sheetData>
